--- a/biology/Médecine/Rameau_superficiel_du_nerf_plantaire_latéral/Rameau_superficiel_du_nerf_plantaire_latéral.xlsx
+++ b/biology/Médecine/Rameau_superficiel_du_nerf_plantaire_latéral/Rameau_superficiel_du_nerf_plantaire_latéral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rameau_superficiel_du_nerf_plantaire_lat%C3%A9ral</t>
+          <t>Rameau_superficiel_du_nerf_plantaire_latéral</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rameau superficiel du nerf plantaire latéral est un nerf du pied.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rameau_superficiel_du_nerf_plantaire_lat%C3%A9ral</t>
+          <t>Rameau_superficiel_du_nerf_plantaire_latéral</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rameau superficiel du nerf plantaire latéral est une branche terminale du nerf plantaire latéral.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rameau_superficiel_du_nerf_plantaire_lat%C3%A9ral</t>
+          <t>Rameau_superficiel_du_nerf_plantaire_latéral</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rameau superficiel du nerf plantaire latéral se divise en un nerf digital plantaire propre et en un nerf digital plantaire commun.
 Le nerf digital plantaire propre innerve le côté latéral du 5ème orteil et donne un rameau pour le muscle court fléchisseur du petit orteil.
